--- a/medicine/Enfance/Katherine_Arden/Katherine_Arden.xlsx
+++ b/medicine/Enfance/Katherine_Arden/Katherine_Arden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine Arden, née le 22 octobre 1987 à Austin dans le Texas[1], est une romancière américaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine Arden, née le 22 octobre 1987 à Austin dans le Texas, est une romancière américaine.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, Katherine Arden obtient ses deux diplômes en langues (russe et française) à la suite des cursus suivis au Middlebury College[2].
-Après avoir passé une année à Moscou[3], elle retourne dans le Vermont, où elle vit actuellement. À la suite de cette expérience, elle écrit la Trilogie d'une nuit d'hiver, qui emprunte au folklore russe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, Katherine Arden obtient ses deux diplômes en langues (russe et française) à la suite des cursus suivis au Middlebury College.
+Après avoir passé une année à Moscou, elle retourne dans le Vermont, où elle vit actuellement. À la suite de cette expérience, elle écrit la Trilogie d'une nuit d'hiver, qui emprunte au folklore russe.
 </t>
         </is>
       </c>
@@ -545,17 +559,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trilogie d'une nuit d'hiver
-L'Ours et le Rossignol, Denoël, coll. « Lunes d'encre », 2019 ((en) The Bear and the Nightingale, 2017), trad. Jacques Collin, 368 p.  (ISBN 978-2-207-14393-3)Réédition, Gallimard, coll. « Folio SF », no 653, 2020, 464 p.  (ISBN 978-2-07-288624-9)
+          <t>Trilogie d'une nuit d'hiver</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Ours et le Rossignol, Denoël, coll. « Lunes d'encre », 2019 ((en) The Bear and the Nightingale, 2017), trad. Jacques Collin, 368 p.  (ISBN 978-2-207-14393-3)Réédition, Gallimard, coll. « Folio SF », no 653, 2020, 464 p.  (ISBN 978-2-07-288624-9)
 La Fille dans la tour, Denoël, coll. « Lunes d'encre », 2019 ((en) The Girl in the Tower, 2018), trad. Jacques Collin, 416 p.  (ISBN 978-2-207-14398-8)Réédition, Gallimard, coll. « Folio SF », no 682, 2021, 528 p.  (ISBN 978-2-07-293151-2)
-L'Hiver de la sorcière, Denoël, coll. « Lunes d'encre », 2020 ((en) The Winter of the Witch, 2019), trad. Jacques Collin, 464 p.  (ISBN 978-2-207-14403-9)Réédition, Gallimard, coll. « Folio SF », no 691, 2021, 576 p.  (ISBN 978-2-07-295227-2)
-Série Small Spaces
-Terreur à Smoke Hollow, Pocket Jeunesse, 2020 ((en) Small Spaces, 2018), trad. Maud Ortalda, 256 p.  (ISBN 978-2-266-29683-0)
+L'Hiver de la sorcière, Denoël, coll. « Lunes d'encre », 2020 ((en) The Winter of the Witch, 2019), trad. Jacques Collin, 464 p.  (ISBN 978-2-207-14403-9)Réédition, Gallimard, coll. « Folio SF », no 691, 2021, 576 p.  (ISBN 978-2-07-295227-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Katherine_Arden</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Arden</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Small Spaces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Terreur à Smoke Hollow, Pocket Jeunesse, 2020 ((en) Small Spaces, 2018), trad. Maud Ortalda, 256 p.  (ISBN 978-2-266-29683-0)
 Frissons au Mont Hemlock, Pocket Jeunesse, 2021 ((en) Dead Voices, 2019), trad. Maud Ortalda, 264 p.  (ISBN 978-2-266-31508-1)
 Peur sur le lac, Pocket Jeunesse, 2021 ((en) Dark Waters, 2021), trad. Maud Ortalda, 216 p.  (ISBN 978-2-266-32458-8)
-Effroi à la fête foraine, Pocket Jeunesse, 2023 ((en) Empty Smiles, 2022), trad. Maud Ortalda, 224 p.  (ISBN 978-2-266-33674-1)
-Romans indépendants
-Requiem pour les fantômes, Denoël, coll. « Lunes d'encre », 2024 ((en) The Warm Hands of Ghosts, 2024)À paraître le 18 septembre 2024</t>
+Effroi à la fête foraine, Pocket Jeunesse, 2023 ((en) Empty Smiles, 2022), trad. Maud Ortalda, 224 p.  (ISBN 978-2-266-33674-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Katherine_Arden</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Arden</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Requiem pour les fantômes, Denoël, coll. « Lunes d'encre », 2024 ((en) The Warm Hands of Ghosts, 2024)À paraître le 18 septembre 2024</t>
         </is>
       </c>
     </row>
